--- a/lib/analysis/simulations/2011 simulation - n250 - yearend.xlsx
+++ b/lib/analysis/simulations/2011 simulation - n250 - yearend.xlsx
@@ -457,10 +457,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -806,7 +806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P251"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L251"/>
     </sheetView>
   </sheetViews>
